--- a/SS304_test_log.xlsx
+++ b/SS304_test_log.xlsx
@@ -7,19 +7,19 @@
     <workbookView xWindow="0" yWindow="870" windowWidth="18270" windowHeight="7590" tabRatio="557"/>
   </bookViews>
   <sheets>
-    <sheet name="Inconel718_test_log" sheetId="1" r:id="rId1"/>
+    <sheet name="SS304_test_log" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Inconel718_test_log!$E$1:$E$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SS304_test_log!$E$1:$E$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="94">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,225 @@
   </si>
   <si>
     <t>1Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure at 10874</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>3006</t>
+  </si>
+  <si>
+    <t>3007</t>
+  </si>
+  <si>
+    <t>3008</t>
+  </si>
+  <si>
+    <t>3009</t>
+  </si>
+  <si>
+    <t>3010</t>
+  </si>
+  <si>
+    <t>ramp:+-0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.30</t>
+  </si>
+  <si>
+    <t>ramp:+-0.35</t>
+  </si>
+  <si>
+    <t>ramp:+-0.40</t>
+  </si>
+  <si>
+    <t>ramp:+-0.45</t>
+  </si>
+  <si>
+    <t>ramp:+-0.50</t>
+  </si>
+  <si>
+    <t>ramp:+-0.55</t>
+  </si>
+  <si>
+    <t>ramp:+-0.60</t>
+  </si>
+  <si>
+    <t>+-0.25</t>
+  </si>
+  <si>
+    <t>+-0.30</t>
+  </si>
+  <si>
+    <t>+-0.35</t>
+  </si>
+  <si>
+    <t>+-0.40</t>
+  </si>
+  <si>
+    <t>+-0.45</t>
+  </si>
+  <si>
+    <t>+-0.50</t>
+  </si>
+  <si>
+    <t>+-0.55</t>
+  </si>
+  <si>
+    <t>+-0.60</t>
+  </si>
+  <si>
+    <t>3011</t>
+  </si>
+  <si>
+    <t>3012</t>
+  </si>
+  <si>
+    <t>3013</t>
+  </si>
+  <si>
+    <t>3014</t>
+  </si>
+  <si>
+    <t>3015</t>
+  </si>
+  <si>
+    <t>3016</t>
+  </si>
+  <si>
+    <t>ramp:+-0.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-1.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure at 8442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure at 23860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T:2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure at 11903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure at 5026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure at 5047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure at 2301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure at 2261</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure at 1422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure at 1185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T:10s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure at 531</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure at 838</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure at 494</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure at 459</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failure at 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monotonic tension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fracture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0004mm/mm/s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,9 +766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -567,7 +786,7 @@
     <col min="11" max="12" width="12.75" style="6" customWidth="1"/>
     <col min="13" max="13" width="18.375" style="5" customWidth="1"/>
     <col min="14" max="14" width="7.5" style="5" customWidth="1"/>
-    <col min="15" max="15" width="21.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.625" style="6" customWidth="1"/>
     <col min="16" max="17" width="29.375" style="7" customWidth="1"/>
     <col min="18" max="19" width="25" style="5" customWidth="1"/>
     <col min="20" max="20" width="11.625" style="4" customWidth="1"/>
@@ -646,7 +865,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -658,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>16</v>
@@ -672,23 +891,23 @@
       <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
+      <c r="J2" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="L2" s="6">
         <v>0</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="P2" s="7">
         <v>0</v>
@@ -697,146 +916,1175 @@
         <v>0</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="T2" s="8">
-        <v>41956</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>26</v>
+        <v>41942</v>
       </c>
       <c r="V2" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="T3" s="8"/>
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="8">
+        <v>41956</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="T4" s="8"/>
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>20</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="8">
+        <v>41956</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="T5" s="8"/>
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>20</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="8">
+        <v>41956</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V5" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="T6" s="8"/>
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4">
+        <v>20</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" s="8">
+        <v>41956</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="T7" s="8"/>
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>20</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="8">
+        <v>41956</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="T8" s="8"/>
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>20</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" s="8">
+        <v>41956</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V8" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="T9" s="8"/>
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>20</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" s="8">
+        <v>41956</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="T10" s="8"/>
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4">
+        <v>20</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" s="8">
+        <v>41956</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="V10" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="T11" s="8"/>
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>20</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" s="8">
+        <v>41956</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="V11" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="T12" s="8"/>
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>20</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T12" s="8">
+        <v>41956</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V12" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="T13" s="8"/>
+      <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>20</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T13" s="8">
+        <v>41956</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="T14" s="8"/>
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4">
+        <v>20</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" s="8">
+        <v>41956</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="J15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="T15" s="8"/>
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>20</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T15" s="8">
+        <v>41956</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V15" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="J16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="T16" s="8"/>
-    </row>
-    <row r="17" spans="10:20" x14ac:dyDescent="0.15">
-      <c r="J17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="T17" s="8"/>
-    </row>
-    <row r="18" spans="10:20" x14ac:dyDescent="0.15">
-      <c r="J18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="T18" s="8"/>
-    </row>
-    <row r="19" spans="10:20" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4">
+        <v>20</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T16" s="8">
+        <v>41956</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="V16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4">
+        <v>20</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T17" s="8">
+        <v>41956</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4">
+        <v>20</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T18" s="8">
+        <v>41956</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J19" s="5"/>
       <c r="O19" s="5"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J20" s="5"/>
       <c r="O20" s="5"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J21" s="5"/>
       <c r="O21" s="5"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J22" s="5"/>
       <c r="O22" s="5"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J23" s="5"/>
       <c r="O23" s="5"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J24" s="5"/>
       <c r="O24" s="5"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J25" s="5"/>
       <c r="O25" s="5"/>
       <c r="T25" s="8"/>
     </row>
-    <row r="26" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J26" s="5"/>
       <c r="O26" s="5"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J27" s="5"/>
       <c r="O27" s="5"/>
       <c r="T27" s="8"/>
     </row>
-    <row r="28" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J28" s="5"/>
       <c r="O28" s="5"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J29" s="5"/>
       <c r="L29" s="5"/>
       <c r="O29" s="5"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J30" s="5"/>
       <c r="L30" s="5"/>
       <c r="O30" s="5"/>
       <c r="T30" s="8"/>
     </row>
-    <row r="31" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J31" s="5"/>
       <c r="L31" s="5"/>
       <c r="O31" s="5"/>
       <c r="T31" s="8"/>
     </row>
-    <row r="32" spans="10:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J32" s="5"/>
       <c r="O32" s="5"/>
       <c r="T32" s="8"/>

--- a/SS304_test_log.xlsx
+++ b/SS304_test_log.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SS304_test_log!$E$1:$E$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SS304_test_log!$E$1:$E$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="156">
   <si>
     <t>test date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +365,242 @@
   </si>
   <si>
     <t>0.0004mm/mm/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyclic tension compression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyclic cross path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.4315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3103</t>
+  </si>
+  <si>
+    <t>3104</t>
+  </si>
+  <si>
+    <t>3105</t>
+  </si>
+  <si>
+    <t>3106</t>
+  </si>
+  <si>
+    <t>3107</t>
+  </si>
+  <si>
+    <t>3108</t>
+  </si>
+  <si>
+    <t>3109</t>
+  </si>
+  <si>
+    <t>ramp:+-0.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.8629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.6472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyclic left triangle path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-1.2944</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyclic circle path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin:+-0.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin:+-0.4313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin:+-0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin:+-0.6469</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin:+-0.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin:+-1.2939</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyclic proportional path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-3.4503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-0.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramp:+-1.7251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin:+-0.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin:+-1.7251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin:+-0.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin:+-3.4503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin:+-0.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin:+-2.5866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T:24s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T:18s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T:20s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05556Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04167Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop at 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.1477</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.2954</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.2215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.4431</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">+-0.1087 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+-0.1630 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+-0.3260 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+-1.1813 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+-0.5906 </t>
+  </si>
+  <si>
+    <t>+-0.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.8692</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+-0.8858</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,11 +1000,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -778,14 +1014,14 @@
     <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="29.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="6" customWidth="1"/>
-    <col min="11" max="12" width="12.75" style="6" customWidth="1"/>
-    <col min="13" max="13" width="18.375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="7.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="6" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="12.75" style="6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="18.375" style="5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="5" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="21.625" style="6" customWidth="1"/>
     <col min="16" max="17" width="29.375" style="7" customWidth="1"/>
     <col min="18" max="19" width="25" style="5" customWidth="1"/>
@@ -1962,7 +2198,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>16</v>
@@ -2017,70 +2253,787 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="J19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="T19" s="8"/>
+      <c r="A19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="3">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>25</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="4">
+        <v>20</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="T19" s="8">
+        <v>41197</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V19" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="J20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="T20" s="8"/>
+      <c r="A20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="3">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>25</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="4">
+        <v>20</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="T20" s="8">
+        <v>41198</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V20" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="J21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="T21" s="8"/>
+      <c r="A21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="3">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>25</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="4">
+        <v>20</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T21" s="8">
+        <v>41198</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="J22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="T22" s="8"/>
+      <c r="A22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="3">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="4">
+        <v>20</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="T22" s="8">
+        <v>41198</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V22" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="J23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="T23" s="8"/>
+      <c r="A23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="3">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D23" s="3">
+        <v>25</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="4">
+        <v>20</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P23" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>0</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T23" s="8">
+        <v>41200</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V23" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="J24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="T24" s="8"/>
+      <c r="A24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="3">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>25</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="4">
+        <v>20</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T24" s="8">
+        <v>41200</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V24" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="J25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="T25" s="8"/>
+      <c r="A25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="3">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>25</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="4">
+        <v>20</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T25" s="8">
+        <v>41200</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V25" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="J26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="T26" s="8"/>
+      <c r="A26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="3">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="4">
+        <v>20</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T26" s="8">
+        <v>41201</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V26" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="J27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="T27" s="8"/>
+      <c r="A27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="3">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D27" s="3">
+        <v>25</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="4">
+        <v>20</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>0</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T27" s="8">
+        <v>41201</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V27" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="J28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="T28" s="8"/>
+      <c r="A28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="3">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>25</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="4">
+        <v>20</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P28" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>0</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T28" s="8">
+        <v>41207</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V28" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="J29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="T29" s="8"/>
+      <c r="A29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="3">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>25</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="4">
+        <v>20</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>0</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T29" s="8">
+        <v>41207</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V29" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="J30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="T30" s="8"/>
+      <c r="A30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="3">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>25</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="4">
+        <v>20</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P30" s="7">
+        <v>45</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>0</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T30" s="8">
+        <v>41207</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V30" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
       <c r="J31" s="5"/>
-      <c r="L31" s="5"/>
       <c r="O31" s="5"/>
       <c r="T31" s="8"/>
     </row>
@@ -2110,7 +3063,6 @@
       <c r="T36" s="8"/>
     </row>
     <row r="37" spans="10:20" x14ac:dyDescent="0.15">
-      <c r="J37" s="5"/>
       <c r="O37" s="5"/>
       <c r="T37" s="8"/>
     </row>
@@ -2120,6 +3072,7 @@
       <c r="T38" s="8"/>
     </row>
     <row r="39" spans="10:20" x14ac:dyDescent="0.15">
+      <c r="J39" s="5"/>
       <c r="O39" s="5"/>
       <c r="T39" s="8"/>
     </row>
@@ -2140,19 +3093,19 @@
     </row>
     <row r="43" spans="10:20" x14ac:dyDescent="0.15">
       <c r="J43" s="5"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
       <c r="O43" s="5"/>
       <c r="T43" s="8"/>
     </row>
     <row r="44" spans="10:20" x14ac:dyDescent="0.15">
-      <c r="J44" s="5"/>
-      <c r="O44" s="5"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
       <c r="T44" s="8"/>
     </row>
     <row r="45" spans="10:20" x14ac:dyDescent="0.15">
-      <c r="J45" s="5"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="5"/>
       <c r="T45" s="8"/>
     </row>
     <row r="46" spans="10:20" x14ac:dyDescent="0.15">
@@ -2174,16 +3127,6 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="T49" s="8"/>
-    </row>
-    <row r="50" spans="13:20" x14ac:dyDescent="0.15">
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="T50" s="8"/>
-    </row>
-    <row r="51" spans="13:20" x14ac:dyDescent="0.15">
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="T51" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2:W22">
